--- a/SoftwareTest/Document/work.xlsx
+++ b/SoftwareTest/Document/work.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Documents\GitHub\learning\SoftwareTest\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B655E8C1-5FC4-4708-9EA6-B35C92493C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF1B41D-38C1-465A-977F-51C92375CA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Part1" sheetId="1" r:id="rId1"/>
+    <sheet name="Part2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="104">
   <si>
     <t>同値分割法と境界値分析</t>
     <rPh sb="0" eb="2">
@@ -526,6 +527,301 @@
     <t>沖縄支店</t>
     <rPh sb="0" eb="4">
       <t>オキナワシテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デシジョンテーブルひな形</t>
+    <rPh sb="11" eb="12">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件/</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルール（Y：Yes/N：No）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルール１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルール２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルール３</t>
+  </si>
+  <si>
+    <t>ルール４</t>
+  </si>
+  <si>
+    <t>ルール５</t>
+  </si>
+  <si>
+    <t>ルール６</t>
+  </si>
+  <si>
+    <t>条件</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1杯目のビールの価格</t>
+    <rPh sb="1" eb="3">
+      <t>ハイメ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>490円</t>
+    <rPh sb="3" eb="4">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>290円</t>
+    <rPh sb="3" eb="4">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100円</t>
+    <rPh sb="3" eb="4">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16:00-17:59</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クーポン利用</t>
+    <rPh sb="4" eb="6">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓簡単化</t>
+    <rPh sb="1" eb="4">
+      <t>カンタンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0円</t>
+    <rPh sb="1" eb="2">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平日　0:00-8:44</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平日　8:45-17:59</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平日　18:00-23:59</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土日祝日</t>
+    <rPh sb="0" eb="4">
+      <t>ドニチシュクジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特別会員</t>
+    <rPh sb="0" eb="4">
+      <t>トクベツカイイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルール７</t>
+  </si>
+  <si>
+    <t>ルール８</t>
+  </si>
+  <si>
+    <t>簡単化</t>
+    <rPh sb="0" eb="3">
+      <t>カンタンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀行ATMの引き出し手数料　×</t>
+    <rPh sb="0" eb="2">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>テスウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平日　</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8:45-17:59</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正解</t>
+    <rPh sb="0" eb="2">
+      <t>セイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特別会員か否か→時間→平日か土日かの順に判断するロジックの場合</t>
+    <rPh sb="0" eb="4">
+      <t>トクベツカイイン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イナ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘイジツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドニチ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紳士服の割引率</t>
+    <rPh sb="0" eb="3">
+      <t>シンシフク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ワリビキリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①ロジックが不明</t>
+    <rPh sb="6" eb="8">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワイシャツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネクタイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>７点以上</t>
+    <rPh sb="1" eb="2">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストケース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>点数</t>
+    <rPh sb="0" eb="2">
+      <t>テンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>６点以下</t>
+    <rPh sb="1" eb="4">
+      <t>テンイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -535,8 +831,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -554,7 +850,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -567,8 +863,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -591,18 +917,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -615,18 +1077,61 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -910,7 +1415,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -4001,7 +4508,7 @@
       <c r="C279" s="11">
         <v>50</v>
       </c>
-      <c r="D279" s="15" t="s">
+      <c r="D279" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4012,7 +4519,7 @@
       <c r="C280" s="11">
         <v>99</v>
       </c>
-      <c r="D280" s="15" t="s">
+      <c r="D280" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4023,7 +4530,7 @@
       <c r="C281" s="11">
         <v>100</v>
       </c>
-      <c r="D281" s="15" t="s">
+      <c r="D281" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4034,7 +4541,7 @@
       <c r="C282" s="11">
         <v>500</v>
       </c>
-      <c r="D282" s="15" t="s">
+      <c r="D282" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4045,7 +4552,7 @@
       <c r="C283" s="11">
         <v>999</v>
       </c>
-      <c r="D283" s="15" t="s">
+      <c r="D283" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4056,7 +4563,7 @@
       <c r="C284" s="11">
         <v>1000</v>
       </c>
-      <c r="D284" s="15" t="s">
+      <c r="D284" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4067,7 +4574,7 @@
       <c r="C285" s="11">
         <v>1500</v>
       </c>
-      <c r="D285" s="15" t="s">
+      <c r="D285" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4094,7 +4601,7 @@
       <c r="C289" s="11">
         <v>100</v>
       </c>
-      <c r="D289" s="15" t="s">
+      <c r="D289" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4105,7 +4612,7 @@
       <c r="C290" s="11">
         <v>105</v>
       </c>
-      <c r="D290" s="15" t="s">
+      <c r="D290" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4116,7 +4623,7 @@
       <c r="C291" s="11">
         <v>955</v>
       </c>
-      <c r="D291" s="15" t="s">
+      <c r="D291" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4127,7 +4634,7 @@
       <c r="C292" s="11">
         <v>960</v>
       </c>
-      <c r="D292" s="15" t="s">
+      <c r="D292" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4138,4 +4645,2508 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BE03A4-DB73-43A8-8F1D-C8CB53F395C1}">
+  <dimension ref="A1:N138"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="4" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="29"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="28"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="29"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="29"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="28"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>2.1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="29"/>
+      <c r="C20" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="28"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="29"/>
+      <c r="C23" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="29"/>
+      <c r="C24" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="28"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="29"/>
+      <c r="C31" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="28"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="B33" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="B34" s="29"/>
+      <c r="C34" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="31"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="B35" s="29"/>
+      <c r="C35" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="16"/>
+      <c r="E35" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="B36" s="28"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="B39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="22"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="B40" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I40" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J40" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="K40" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="L40" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="B41" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="25"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="B42" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="16"/>
+      <c r="E42" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H42" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I42" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="J42" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="K42" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="L42" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="B43" s="29"/>
+      <c r="C43" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="16"/>
+      <c r="E43" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H43" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I43" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="J43" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="K43" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="L43" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="B44" s="29"/>
+      <c r="C44" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="16"/>
+      <c r="E44" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G44" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I44" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="J44" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="K44" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="L44" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="B45" s="29"/>
+      <c r="C45" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="16"/>
+      <c r="E45" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H45" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I45" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="J45" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="K45" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="L45" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="B46" s="28"/>
+      <c r="C46" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="16"/>
+      <c r="E46" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G46" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H46" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I46" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="J46" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="K46" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="L46" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="B47" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="16"/>
+      <c r="E47" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I47" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="L47" s="31"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="B48" s="29"/>
+      <c r="C48" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="16"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12">
+      <c r="B49" s="29"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+    </row>
+    <row r="50" spans="2:12">
+      <c r="B50" s="28"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+    </row>
+    <row r="51" spans="2:12">
+      <c r="B51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12">
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+    </row>
+    <row r="53" spans="2:12">
+      <c r="B53" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G53" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H53" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="I53" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12">
+      <c r="B54" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="25"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+    </row>
+    <row r="55" spans="2:12">
+      <c r="B55" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="16"/>
+      <c r="E55" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="F55" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G55" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H55" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I55" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12">
+      <c r="B56" s="29"/>
+      <c r="C56" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="16"/>
+      <c r="E56" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="F56" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H56" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I56" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12">
+      <c r="B57" s="29"/>
+      <c r="C57" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="16"/>
+      <c r="E57" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="F57" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G57" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H57" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I57" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="B58" s="29"/>
+      <c r="C58" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" s="16"/>
+      <c r="E58" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="F58" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G58" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I58" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12">
+      <c r="B59" s="28"/>
+      <c r="C59" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="16"/>
+      <c r="E59" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F59" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G59" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H59" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I59" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12">
+      <c r="B60" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="16"/>
+      <c r="E60" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+    </row>
+    <row r="61" spans="2:12">
+      <c r="B61" s="29"/>
+      <c r="C61" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" s="16"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I61" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12">
+      <c r="B62" s="29"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+    </row>
+    <row r="63" spans="2:12">
+      <c r="B63" s="28"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+    </row>
+    <row r="64" spans="2:12">
+      <c r="B64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12">
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="22"/>
+    </row>
+    <row r="66" spans="2:12">
+      <c r="B66" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="24"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G66" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H66" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I66" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J66" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="K66" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="L66" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12">
+      <c r="B67" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" s="25"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
+    </row>
+    <row r="68" spans="2:12">
+      <c r="B68" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D68" s="16"/>
+      <c r="E68" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="F68" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G68" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="H68" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="I68" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="J68" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="K68" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="L68" s="36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12">
+      <c r="B69" s="29"/>
+      <c r="C69" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D69" s="16"/>
+      <c r="E69" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="F69" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G69" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="H69" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="I69" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="J69" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="K69" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="L69" s="35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12">
+      <c r="B70" s="28"/>
+      <c r="C70" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D70" s="16"/>
+      <c r="E70" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F70" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G70" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H70" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="I70" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="J70" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="K70" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="L70" s="35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12">
+      <c r="B71" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" s="16"/>
+      <c r="E71" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F71" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G71" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H71" s="31"/>
+      <c r="I71" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="J71" s="31"/>
+      <c r="K71" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="L71" s="31"/>
+    </row>
+    <row r="72" spans="2:12">
+      <c r="B72" s="29"/>
+      <c r="C72" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D72" s="16"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="K72" s="31"/>
+      <c r="L72" s="35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12">
+      <c r="B73" s="29"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="31"/>
+    </row>
+    <row r="74" spans="2:12">
+      <c r="B74" s="28"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="31"/>
+      <c r="K74" s="31"/>
+      <c r="L74" s="31"/>
+    </row>
+    <row r="75" spans="2:12">
+      <c r="B75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12">
+      <c r="B76" s="18"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="22"/>
+    </row>
+    <row r="77" spans="2:12">
+      <c r="B77" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C77" s="24"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F77" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G77" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H77" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12">
+      <c r="B78" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78" s="25"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="28"/>
+    </row>
+    <row r="79" spans="2:12">
+      <c r="B79" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D79" s="16"/>
+      <c r="E79" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="F79" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G79" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="H79" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12">
+      <c r="B80" s="29"/>
+      <c r="C80" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D80" s="16"/>
+      <c r="E80" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="F80" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G80" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H80" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="B81" s="28"/>
+      <c r="C81" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D81" s="16"/>
+      <c r="E81" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F81" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G81" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H81" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="B82" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" s="16"/>
+      <c r="E82" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F82" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="B83" s="29"/>
+      <c r="C83" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D83" s="16"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H83" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="B84" s="29"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="B85" s="28"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="31"/>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B87" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="B88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="B89" s="18"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E89" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="22"/>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="B90" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C90" s="24"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F90" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G90" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H90" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I90" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J90" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="K90" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="L90" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="B91" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C91" s="25"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="28"/>
+      <c r="K91" s="28"/>
+      <c r="L91" s="28"/>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="B92" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D92" s="16"/>
+      <c r="E92" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F92" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G92" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H92" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I92" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="J92" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="K92" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="L92" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="B93" s="29"/>
+      <c r="C93" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D93" s="16"/>
+      <c r="E93" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F93" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G93" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H93" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I93" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="J93" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="K93" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="L93" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="B94" s="28"/>
+      <c r="C94" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D94" s="16"/>
+      <c r="E94" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F94" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G94" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H94" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I94" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="J94" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="K94" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="L94" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="B95" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D95" s="16"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I95" s="31"/>
+      <c r="J95" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="K95" s="31"/>
+      <c r="L95" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="B96" s="29"/>
+      <c r="C96" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="D96" s="16"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="31"/>
+      <c r="K96" s="31"/>
+      <c r="L96" s="31"/>
+    </row>
+    <row r="97" spans="2:14">
+      <c r="B97" s="29"/>
+      <c r="C97" s="37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D97" s="16"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="J97" s="31"/>
+      <c r="K97" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="L97" s="31"/>
+    </row>
+    <row r="98" spans="2:14">
+      <c r="B98" s="28"/>
+      <c r="C98" s="37">
+        <v>0.12</v>
+      </c>
+      <c r="D98" s="16"/>
+      <c r="E98" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F98" s="31"/>
+      <c r="G98" s="31"/>
+      <c r="H98" s="31"/>
+      <c r="I98" s="31"/>
+      <c r="J98" s="31"/>
+      <c r="K98" s="31"/>
+      <c r="L98" s="31"/>
+    </row>
+    <row r="99" spans="2:14">
+      <c r="B99" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" s="39"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="40"/>
+      <c r="F99" s="40"/>
+      <c r="G99" s="40"/>
+      <c r="H99" s="40"/>
+      <c r="I99" s="40"/>
+      <c r="J99" s="40"/>
+      <c r="K99" s="40"/>
+      <c r="L99" s="40"/>
+    </row>
+    <row r="100" spans="2:14">
+      <c r="B100" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F100" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="G100" s="40"/>
+      <c r="H100" s="40"/>
+      <c r="I100" s="40"/>
+      <c r="J100" s="40"/>
+      <c r="K100" s="40"/>
+      <c r="L100" s="40"/>
+      <c r="M100" s="40"/>
+      <c r="N100" s="40"/>
+    </row>
+    <row r="101" spans="2:14">
+      <c r="B101" s="3">
+        <v>1</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F101" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="G101" s="40"/>
+      <c r="H101" s="40"/>
+      <c r="I101" s="40"/>
+      <c r="J101" s="40"/>
+      <c r="K101" s="40"/>
+      <c r="L101" s="40"/>
+      <c r="M101" s="40"/>
+      <c r="N101" s="40"/>
+    </row>
+    <row r="102" spans="2:14">
+      <c r="B102" s="3">
+        <v>2</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F102" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G102" s="40"/>
+      <c r="H102" s="40"/>
+      <c r="I102" s="40"/>
+      <c r="J102" s="40"/>
+      <c r="K102" s="40"/>
+      <c r="L102" s="40"/>
+      <c r="M102" s="40"/>
+      <c r="N102" s="40"/>
+    </row>
+    <row r="103" spans="2:14">
+      <c r="B103" s="3">
+        <v>3</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F103" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G103" s="40"/>
+      <c r="H103" s="40"/>
+      <c r="I103" s="40"/>
+      <c r="J103" s="40"/>
+      <c r="K103" s="40"/>
+      <c r="L103" s="40"/>
+      <c r="M103" s="40"/>
+      <c r="N103" s="40"/>
+    </row>
+    <row r="104" spans="2:14">
+      <c r="B104" s="3">
+        <v>4</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F104" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G104" s="40"/>
+      <c r="H104" s="40"/>
+      <c r="I104" s="40"/>
+      <c r="J104" s="40"/>
+      <c r="K104" s="40"/>
+      <c r="L104" s="40"/>
+      <c r="M104" s="40"/>
+      <c r="N104" s="40"/>
+    </row>
+    <row r="105" spans="2:14">
+      <c r="B105" s="3">
+        <v>5</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F105" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="G105" s="40"/>
+      <c r="H105" s="40"/>
+      <c r="I105" s="40"/>
+      <c r="J105" s="40"/>
+      <c r="K105" s="40"/>
+      <c r="L105" s="40"/>
+      <c r="M105" s="40"/>
+      <c r="N105" s="40"/>
+    </row>
+    <row r="106" spans="2:14">
+      <c r="B106" s="3">
+        <v>6</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G106" s="40"/>
+      <c r="H106" s="40"/>
+      <c r="I106" s="40"/>
+      <c r="J106" s="40"/>
+      <c r="K106" s="40"/>
+      <c r="L106" s="40"/>
+      <c r="M106" s="40"/>
+      <c r="N106" s="40"/>
+    </row>
+    <row r="107" spans="2:14">
+      <c r="B107" s="3">
+        <v>7</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G107" s="40"/>
+      <c r="H107" s="40"/>
+      <c r="I107" s="40"/>
+      <c r="J107" s="40"/>
+      <c r="K107" s="40"/>
+      <c r="L107" s="40"/>
+      <c r="M107" s="40"/>
+      <c r="N107" s="40"/>
+    </row>
+    <row r="108" spans="2:14">
+      <c r="B108" s="3">
+        <v>7</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G108" s="40"/>
+      <c r="H108" s="40"/>
+      <c r="I108" s="40"/>
+      <c r="J108" s="40"/>
+      <c r="K108" s="40"/>
+      <c r="L108" s="40"/>
+      <c r="M108" s="40"/>
+      <c r="N108" s="40"/>
+    </row>
+    <row r="109" spans="2:14">
+      <c r="B109" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14">
+      <c r="B110" s="18"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E110" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F110" s="21"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="21"/>
+      <c r="I110" s="21"/>
+      <c r="J110" s="22"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="22"/>
+    </row>
+    <row r="111" spans="2:14">
+      <c r="B111" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C111" s="24"/>
+      <c r="D111" s="25"/>
+      <c r="E111" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F111" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G111" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H111" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I111" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J111" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="K111" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="L111" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14">
+      <c r="B112" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C112" s="25"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="28"/>
+      <c r="F112" s="28"/>
+      <c r="G112" s="28"/>
+      <c r="H112" s="28"/>
+      <c r="I112" s="28"/>
+      <c r="J112" s="28"/>
+      <c r="K112" s="28"/>
+      <c r="L112" s="28"/>
+    </row>
+    <row r="113" spans="2:12">
+      <c r="B113" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D113" s="16"/>
+      <c r="E113" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F113" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G113" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H113" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I113" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="J113" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="K113" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="L113" s="35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12">
+      <c r="B114" s="29"/>
+      <c r="C114" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D114" s="16"/>
+      <c r="E114" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F114" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G114" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H114" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I114" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="J114" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K114" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="L114" s="36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="115" spans="2:12">
+      <c r="B115" s="28"/>
+      <c r="C115" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D115" s="16"/>
+      <c r="E115" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F115" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G115" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H115" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I115" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="J115" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="K115" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="L115" s="35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12">
+      <c r="B116" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C116" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D116" s="16"/>
+      <c r="E116" s="31"/>
+      <c r="F116" s="31"/>
+      <c r="G116" s="31"/>
+      <c r="H116" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I116" s="31"/>
+      <c r="J116" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="K116" s="31"/>
+      <c r="L116" s="35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12">
+      <c r="B117" s="29"/>
+      <c r="C117" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="D117" s="16"/>
+      <c r="E117" s="31"/>
+      <c r="F117" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G117" s="31"/>
+      <c r="H117" s="31"/>
+      <c r="I117" s="31"/>
+      <c r="J117" s="31"/>
+      <c r="K117" s="31"/>
+      <c r="L117" s="31"/>
+    </row>
+    <row r="118" spans="2:12">
+      <c r="B118" s="29"/>
+      <c r="C118" s="37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D118" s="16"/>
+      <c r="E118" s="31"/>
+      <c r="F118" s="31"/>
+      <c r="G118" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H118" s="31"/>
+      <c r="I118" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="J118" s="31"/>
+      <c r="K118" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="L118" s="31"/>
+    </row>
+    <row r="119" spans="2:12">
+      <c r="B119" s="28"/>
+      <c r="C119" s="37">
+        <v>0.12</v>
+      </c>
+      <c r="D119" s="16"/>
+      <c r="E119" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F119" s="31"/>
+      <c r="G119" s="31"/>
+      <c r="H119" s="31"/>
+      <c r="I119" s="31"/>
+      <c r="J119" s="31"/>
+      <c r="K119" s="31"/>
+      <c r="L119" s="31"/>
+    </row>
+    <row r="120" spans="2:12">
+      <c r="B120" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12">
+      <c r="B121" s="18"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E121" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F121" s="21"/>
+      <c r="G121" s="21"/>
+      <c r="H121" s="21"/>
+      <c r="I121" s="21"/>
+      <c r="J121" s="22"/>
+    </row>
+    <row r="122" spans="2:12">
+      <c r="B122" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C122" s="24"/>
+      <c r="D122" s="25"/>
+      <c r="E122" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F122" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G122" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H122" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I122" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J122" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12">
+      <c r="B123" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C123" s="25"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="28"/>
+      <c r="F123" s="28"/>
+      <c r="G123" s="28"/>
+      <c r="H123" s="28"/>
+      <c r="I123" s="28"/>
+      <c r="J123" s="28"/>
+    </row>
+    <row r="124" spans="2:12">
+      <c r="B124" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C124" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D124" s="16"/>
+      <c r="E124" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F124" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G124" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H124" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I124" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="J124" s="38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12">
+      <c r="B125" s="29"/>
+      <c r="C125" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D125" s="16"/>
+      <c r="E125" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F125" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G125" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H125" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I125" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J125" s="38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="2:12">
+      <c r="B126" s="28"/>
+      <c r="C126" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D126" s="16"/>
+      <c r="E126" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F126" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G126" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H126" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I126" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="J126" s="38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="127" spans="2:12">
+      <c r="B127" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C127" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D127" s="16"/>
+      <c r="E127" s="31"/>
+      <c r="F127" s="31"/>
+      <c r="G127" s="31"/>
+      <c r="H127" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I127" s="38"/>
+      <c r="J127" s="38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="128" spans="2:12">
+      <c r="B128" s="29"/>
+      <c r="C128" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="D128" s="16"/>
+      <c r="E128" s="31"/>
+      <c r="F128" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G128" s="31"/>
+      <c r="H128" s="31"/>
+      <c r="I128" s="38"/>
+      <c r="J128" s="38"/>
+    </row>
+    <row r="129" spans="2:14">
+      <c r="B129" s="29"/>
+      <c r="C129" s="37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D129" s="16"/>
+      <c r="E129" s="31"/>
+      <c r="F129" s="31"/>
+      <c r="G129" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H129" s="31"/>
+      <c r="I129" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="J129" s="38"/>
+    </row>
+    <row r="130" spans="2:14">
+      <c r="B130" s="28"/>
+      <c r="C130" s="37">
+        <v>0.12</v>
+      </c>
+      <c r="D130" s="16"/>
+      <c r="E130" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F130" s="31"/>
+      <c r="G130" s="31"/>
+      <c r="H130" s="31"/>
+      <c r="I130" s="31"/>
+      <c r="J130" s="31"/>
+    </row>
+    <row r="131" spans="2:14">
+      <c r="B131" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C131" s="39"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="40"/>
+      <c r="F131" s="40"/>
+      <c r="G131" s="40"/>
+      <c r="H131" s="40"/>
+      <c r="I131" s="40"/>
+      <c r="J131" s="40"/>
+      <c r="K131" s="40"/>
+      <c r="L131" s="40"/>
+    </row>
+    <row r="132" spans="2:14">
+      <c r="B132" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F132" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="G132" s="40"/>
+      <c r="H132" s="40"/>
+      <c r="I132" s="40"/>
+      <c r="J132" s="40"/>
+      <c r="K132" s="40"/>
+      <c r="L132" s="40"/>
+      <c r="M132" s="40"/>
+      <c r="N132" s="40"/>
+    </row>
+    <row r="133" spans="2:14">
+      <c r="B133" s="3">
+        <v>1</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F133" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="G133" s="40"/>
+      <c r="H133" s="40"/>
+      <c r="I133" s="40"/>
+      <c r="J133" s="40"/>
+      <c r="K133" s="40"/>
+      <c r="L133" s="40"/>
+      <c r="M133" s="40"/>
+      <c r="N133" s="40"/>
+    </row>
+    <row r="134" spans="2:14">
+      <c r="B134" s="3">
+        <v>2</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F134" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G134" s="40"/>
+      <c r="H134" s="40"/>
+      <c r="I134" s="40"/>
+      <c r="J134" s="40"/>
+      <c r="K134" s="40"/>
+      <c r="L134" s="40"/>
+      <c r="M134" s="40"/>
+      <c r="N134" s="40"/>
+    </row>
+    <row r="135" spans="2:14">
+      <c r="B135" s="3">
+        <v>3</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F135" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G135" s="40"/>
+      <c r="H135" s="40"/>
+      <c r="I135" s="40"/>
+      <c r="J135" s="40"/>
+      <c r="K135" s="40"/>
+      <c r="L135" s="40"/>
+      <c r="M135" s="40"/>
+      <c r="N135" s="40"/>
+    </row>
+    <row r="136" spans="2:14">
+      <c r="B136" s="3">
+        <v>4</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F136" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="G136" s="40"/>
+      <c r="H136" s="40"/>
+      <c r="I136" s="40"/>
+      <c r="J136" s="40"/>
+      <c r="K136" s="40"/>
+      <c r="L136" s="40"/>
+      <c r="M136" s="40"/>
+      <c r="N136" s="40"/>
+    </row>
+    <row r="137" spans="2:14">
+      <c r="B137" s="3">
+        <v>5</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G137" s="40"/>
+      <c r="H137" s="40"/>
+      <c r="I137" s="40"/>
+      <c r="J137" s="40"/>
+      <c r="K137" s="40"/>
+      <c r="L137" s="40"/>
+      <c r="M137" s="40"/>
+      <c r="N137" s="40"/>
+    </row>
+    <row r="138" spans="2:14">
+      <c r="B138" s="3">
+        <v>6</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F138" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G138" s="40"/>
+      <c r="H138" s="40"/>
+      <c r="I138" s="40"/>
+      <c r="J138" s="40"/>
+      <c r="K138" s="40"/>
+      <c r="L138" s="40"/>
+      <c r="M138" s="40"/>
+      <c r="N138" s="40"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SoftwareTest/Document/work.xlsx
+++ b/SoftwareTest/Document/work.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Documents\GitHub\learning\SoftwareTest\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF1B41D-38C1-465A-977F-51C92375CA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FCC46D-C7FD-466F-88B8-1EE93EAC20AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-3585" windowWidth="16440" windowHeight="28320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Part1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="140">
   <si>
     <t>同値分割法と境界値分析</t>
     <rPh sb="0" eb="2">
@@ -822,6 +822,183 @@
     <t>６点以下</t>
     <rPh sb="1" eb="4">
       <t>テンイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダーの文字色</t>
+    <rPh sb="6" eb="9">
+      <t>モジイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>祝日</t>
+    <rPh sb="0" eb="2">
+      <t>シュクジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日曜日</t>
+    <rPh sb="0" eb="3">
+      <t>ニチヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土曜日</t>
+    <rPh sb="0" eb="3">
+      <t>ドヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平日</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒</t>
+    <rPh sb="0" eb="1">
+      <t>クロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルール２</t>
+  </si>
+  <si>
+    <t>ルール９</t>
+  </si>
+  <si>
+    <t>ルール１０</t>
+  </si>
+  <si>
+    <t>ルール１１</t>
+  </si>
+  <si>
+    <t>ルール１２</t>
+  </si>
+  <si>
+    <t>ルール１３</t>
+  </si>
+  <si>
+    <t>ルール１４</t>
+  </si>
+  <si>
+    <t>ルール１５</t>
+  </si>
+  <si>
+    <t>曜日</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>火</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>土</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>プリペイドカードのチャージ得点</t>
+    <rPh sb="13" eb="15">
+      <t>トクテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当選</t>
+    <rPh sb="0" eb="2">
+      <t>トウセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャージ額</t>
+    <rPh sb="4" eb="5">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボーナス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クーポン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シルバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴールド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宅配ピザの特典</t>
+    <rPh sb="0" eb="2">
+      <t>タクハイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トクテン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1057,7 +1234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1089,7 +1266,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1097,7 +1273,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1108,7 +1284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1122,16 +1298,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1419,11 +1605,11 @@
       <selection activeCell="B5" sqref="B5:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="21.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.58203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4649,11 +4835,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BE03A4-DB73-43A8-8F1D-C8CB53F395C1}">
-  <dimension ref="A1:N138"/>
+  <dimension ref="A1:S213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B178" sqref="B178"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="4" width="10.5" customWidth="1"/>
   </cols>
@@ -4664,138 +4852,138 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="30" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="25" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="29"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="28"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="B10" s="29"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="B11" s="29"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="B12" s="28"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
@@ -4806,172 +4994,172 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="30" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26" t="s">
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="25" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>68</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>73</v>
       </c>
       <c r="D19" s="16"/>
-      <c r="E19" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
+      <c r="E19" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="29"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="15" t="s">
         <v>74</v>
       </c>
       <c r="D20" s="16"/>
-      <c r="E20" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
+      <c r="E20" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="28"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>70</v>
       </c>
       <c r="D22" s="16"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="29"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="15" t="s">
         <v>71</v>
       </c>
       <c r="D23" s="16"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="29"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D24" s="16"/>
-      <c r="E24" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
+      <c r="E24" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="28"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" t="s">
@@ -4979,130 +5167,130 @@
       </c>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="30" t="s">
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26" t="s">
+      <c r="C28" s="23"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="25" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="25" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>73</v>
       </c>
       <c r="D30" s="16"/>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" s="31" t="s">
+      <c r="F30" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="30" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="29"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="15" t="s">
         <v>74</v>
       </c>
       <c r="D31" s="16"/>
-      <c r="E31" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" s="31" t="s">
+      <c r="E31" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="30" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="28"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>70</v>
       </c>
       <c r="D33" s="16"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31" t="s">
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="B34" s="29"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="15" t="s">
         <v>71</v>
       </c>
       <c r="D34" s="16"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G34" s="31"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="30"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="B35" s="29"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D35" s="16"/>
-      <c r="E35" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
+      <c r="E35" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="B36" s="28"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="15"/>
       <c r="D36" s="16"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38">
@@ -5113,298 +5301,298 @@
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="B39" s="18"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="30" t="s">
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="22"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="21"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="26" t="s">
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G40" s="26" t="s">
+      <c r="G40" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="H40" s="26" t="s">
+      <c r="H40" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="I40" s="26" t="s">
+      <c r="I40" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="J40" s="26" t="s">
+      <c r="J40" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="K40" s="26" t="s">
+      <c r="K40" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="L40" s="26" t="s">
+      <c r="L40" s="25" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="25" t="s">
         <v>68</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>79</v>
       </c>
       <c r="D42" s="16"/>
-      <c r="E42" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F42" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G42" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="H42" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I42" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="J42" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="K42" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="L42" s="31" t="s">
+      <c r="E42" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H42" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I42" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="J42" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="K42" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L42" s="30" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="B43" s="29"/>
+      <c r="B43" s="28"/>
       <c r="C43" s="15" t="s">
         <v>80</v>
       </c>
       <c r="D43" s="16"/>
-      <c r="E43" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="F43" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="G43" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="H43" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I43" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="J43" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="K43" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="L43" s="31" t="s">
+      <c r="E43" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G43" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H43" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I43" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="J43" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="K43" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L43" s="30" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="B44" s="29"/>
+      <c r="B44" s="28"/>
       <c r="C44" s="15" t="s">
         <v>81</v>
       </c>
       <c r="D44" s="16"/>
-      <c r="E44" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="F44" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="G44" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="H44" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I44" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="J44" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="K44" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="L44" s="31" t="s">
+      <c r="E44" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G44" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I44" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="J44" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K44" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L44" s="30" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="B45" s="29"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="15" t="s">
         <v>82</v>
       </c>
       <c r="D45" s="16"/>
-      <c r="E45" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="F45" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="G45" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="H45" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I45" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="J45" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="K45" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="L45" s="31" t="s">
+      <c r="E45" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H45" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I45" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="J45" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="K45" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="L45" s="30" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="B46" s="28"/>
+      <c r="B46" s="27"/>
       <c r="C46" s="15" t="s">
         <v>83</v>
       </c>
       <c r="D46" s="16"/>
-      <c r="E46" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F46" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="G46" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="H46" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I46" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="J46" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="K46" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="L46" s="31" t="s">
+      <c r="E46" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G46" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H46" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I46" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="J46" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="K46" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="L46" s="30" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>78</v>
       </c>
       <c r="D47" s="16"/>
-      <c r="E47" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="H47" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I47" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="L47" s="31"/>
+      <c r="E47" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I47" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="L47" s="30"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="B48" s="29"/>
+      <c r="B48" s="28"/>
       <c r="C48" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D48" s="16"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31" t="s">
+      <c r="E48" s="30"/>
+      <c r="F48" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="29"/>
+      <c r="B49" s="28"/>
       <c r="C49" s="15"/>
       <c r="D49" s="16"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="28"/>
+      <c r="B50" s="27"/>
       <c r="C50" s="15"/>
       <c r="D50" s="16"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
     </row>
     <row r="51" spans="2:12">
       <c r="B51" t="s">
@@ -5412,220 +5600,220 @@
       </c>
     </row>
     <row r="52" spans="2:12">
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="30" t="s">
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E52" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="26" t="s">
+      <c r="C53" s="23"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F53" s="26" t="s">
+      <c r="F53" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G53" s="26" t="s">
+      <c r="G53" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="H53" s="26" t="s">
+      <c r="H53" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="I53" s="26" t="s">
+      <c r="I53" s="25" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="54" spans="2:12">
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
     </row>
     <row r="55" spans="2:12">
-      <c r="B55" s="26" t="s">
+      <c r="B55" s="25" t="s">
         <v>68</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>79</v>
       </c>
       <c r="D55" s="16"/>
-      <c r="E55" s="31" t="s">
+      <c r="E55" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F55" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G55" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="H55" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I55" s="31" t="s">
+      <c r="F55" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G55" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H55" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I55" s="30" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="29"/>
+      <c r="B56" s="28"/>
       <c r="C56" s="15" t="s">
         <v>80</v>
       </c>
       <c r="D56" s="16"/>
-      <c r="E56" s="31" t="s">
+      <c r="E56" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F56" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="G56" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="H56" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I56" s="31" t="s">
+      <c r="F56" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G56" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H56" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I56" s="30" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="29"/>
+      <c r="B57" s="28"/>
       <c r="C57" s="15" t="s">
         <v>81</v>
       </c>
       <c r="D57" s="16"/>
-      <c r="E57" s="31" t="s">
+      <c r="E57" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F57" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="G57" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="H57" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I57" s="31" t="s">
+      <c r="F57" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G57" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H57" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I57" s="30" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="29"/>
+      <c r="B58" s="28"/>
       <c r="C58" s="15" t="s">
         <v>82</v>
       </c>
       <c r="D58" s="16"/>
-      <c r="E58" s="31" t="s">
+      <c r="E58" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F58" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="G58" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="H58" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I58" s="31" t="s">
+      <c r="F58" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G58" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I58" s="30" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="28"/>
+      <c r="B59" s="27"/>
       <c r="C59" s="15" t="s">
         <v>83</v>
       </c>
       <c r="D59" s="16"/>
-      <c r="E59" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F59" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="G59" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="H59" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I59" s="31" t="s">
+      <c r="E59" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F59" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G59" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H59" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I59" s="30" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>78</v>
       </c>
       <c r="D60" s="16"/>
-      <c r="E60" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
+      <c r="E60" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="29"/>
+      <c r="B61" s="28"/>
       <c r="C61" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D61" s="16"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I61" s="31" t="s">
+      <c r="E61" s="30"/>
+      <c r="F61" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I61" s="30" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="62" spans="2:12">
-      <c r="B62" s="29"/>
+      <c r="B62" s="28"/>
       <c r="C62" s="15"/>
       <c r="D62" s="16"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
     </row>
     <row r="63" spans="2:12">
-      <c r="B63" s="28"/>
+      <c r="B63" s="27"/>
       <c r="C63" s="15"/>
       <c r="D63" s="16"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
     </row>
     <row r="64" spans="2:12">
       <c r="B64" t="s">
@@ -5633,396 +5821,396 @@
       </c>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="30" t="s">
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E65" s="20" t="s">
+      <c r="E65" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="22"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="21"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C66" s="24"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="26" t="s">
+      <c r="C66" s="23"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F66" s="26" t="s">
+      <c r="F66" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G66" s="26" t="s">
+      <c r="G66" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="H66" s="26" t="s">
+      <c r="H66" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="I66" s="26" t="s">
+      <c r="I66" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="J66" s="26" t="s">
+      <c r="J66" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="K66" s="26" t="s">
+      <c r="K66" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="L66" s="26" t="s">
+      <c r="L66" s="25" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="27" t="s">
+      <c r="B67" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="25"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="28"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="27"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="25" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>89</v>
       </c>
       <c r="D68" s="16"/>
-      <c r="E68" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="F68" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G68" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="H68" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="I68" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="J68" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="K68" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="L68" s="36" t="s">
+      <c r="E68" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F68" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G68" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H68" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I68" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="J68" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="K68" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="L68" s="35" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="29"/>
+      <c r="B69" s="28"/>
       <c r="C69" s="15" t="s">
         <v>90</v>
       </c>
       <c r="D69" s="16"/>
-      <c r="E69" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="F69" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G69" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="H69" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="I69" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="J69" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="K69" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="L69" s="35" t="s">
+      <c r="E69" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F69" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G69" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="H69" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="I69" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="J69" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K69" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="L69" s="34" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="28"/>
+      <c r="B70" s="27"/>
       <c r="C70" s="15" t="s">
         <v>83</v>
       </c>
       <c r="D70" s="16"/>
-      <c r="E70" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="F70" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="G70" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="H70" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="I70" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="J70" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="K70" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="L70" s="35" t="s">
+      <c r="E70" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F70" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G70" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="H70" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="I70" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="J70" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="K70" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="L70" s="34" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="71" spans="2:12">
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>78</v>
       </c>
       <c r="D71" s="16"/>
-      <c r="E71" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="F71" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G71" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="H71" s="31"/>
-      <c r="I71" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="J71" s="31"/>
-      <c r="K71" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="L71" s="31"/>
+      <c r="E71" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F71" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G71" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="H71" s="30"/>
+      <c r="I71" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="J71" s="30"/>
+      <c r="K71" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="L71" s="30"/>
     </row>
     <row r="72" spans="2:12">
-      <c r="B72" s="29"/>
+      <c r="B72" s="28"/>
       <c r="C72" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D72" s="16"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="I72" s="31"/>
-      <c r="J72" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="K72" s="31"/>
-      <c r="L72" s="35" t="s">
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="I72" s="30"/>
+      <c r="J72" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K72" s="30"/>
+      <c r="L72" s="34" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="73" spans="2:12">
-      <c r="B73" s="29"/>
+      <c r="B73" s="28"/>
       <c r="C73" s="15"/>
       <c r="D73" s="16"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="31"/>
-      <c r="J73" s="31"/>
-      <c r="K73" s="31"/>
-      <c r="L73" s="31"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="30"/>
     </row>
     <row r="74" spans="2:12">
-      <c r="B74" s="28"/>
+      <c r="B74" s="27"/>
       <c r="C74" s="15"/>
       <c r="D74" s="16"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="31"/>
-      <c r="K74" s="31"/>
-      <c r="L74" s="31"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30"/>
     </row>
     <row r="75" spans="2:12">
       <c r="B75" t="s">
         <v>86</v>
       </c>
-      <c r="C75" s="32" t="s">
+      <c r="C75" s="31" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="76" spans="2:12">
-      <c r="B76" s="18"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="30" t="s">
+      <c r="B76" s="17"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E76" s="20" t="s">
+      <c r="E76" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="22"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="21"/>
     </row>
     <row r="77" spans="2:12">
-      <c r="B77" s="23" t="s">
+      <c r="B77" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C77" s="24"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="26" t="s">
+      <c r="C77" s="23"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F77" s="26" t="s">
+      <c r="F77" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G77" s="26" t="s">
+      <c r="G77" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="H77" s="26" t="s">
+      <c r="H77" s="25" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="78" spans="2:12">
-      <c r="B78" s="27" t="s">
+      <c r="B78" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C78" s="25"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
     </row>
     <row r="79" spans="2:12">
-      <c r="B79" s="26" t="s">
+      <c r="B79" s="25" t="s">
         <v>68</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>89</v>
       </c>
       <c r="D79" s="16"/>
-      <c r="E79" s="31" t="s">
+      <c r="E79" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F79" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G79" s="31" t="s">
+      <c r="F79" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G79" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="H79" s="31" t="s">
+      <c r="H79" s="30" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="80" spans="2:12">
-      <c r="B80" s="29"/>
+      <c r="B80" s="28"/>
       <c r="C80" s="15" t="s">
         <v>90</v>
       </c>
       <c r="D80" s="16"/>
-      <c r="E80" s="31" t="s">
+      <c r="E80" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F80" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G80" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="H80" s="31" t="s">
+      <c r="F80" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G80" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H80" s="30" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:12">
-      <c r="B81" s="28"/>
+      <c r="B81" s="27"/>
       <c r="C81" s="15" t="s">
         <v>83</v>
       </c>
       <c r="D81" s="16"/>
-      <c r="E81" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F81" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="G81" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="H81" s="31" t="s">
+      <c r="E81" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F81" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G81" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H81" s="30" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:12">
-      <c r="B82" s="26" t="s">
+      <c r="B82" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>78</v>
       </c>
       <c r="D82" s="16"/>
-      <c r="E82" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F82" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
+      <c r="E82" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F82" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
     </row>
     <row r="83" spans="1:12">
-      <c r="B83" s="29"/>
+      <c r="B83" s="28"/>
       <c r="C83" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="16"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="H83" s="31" t="s">
+      <c r="E83" s="30"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H83" s="30" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="84" spans="1:12">
-      <c r="B84" s="29"/>
+      <c r="B84" s="28"/>
       <c r="C84" s="15"/>
       <c r="D84" s="16"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
     </row>
     <row r="85" spans="1:12">
-      <c r="B85" s="28"/>
+      <c r="B85" s="27"/>
       <c r="C85" s="15"/>
       <c r="D85" s="16"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="31"/>
-      <c r="G85" s="31"/>
-      <c r="H85" s="31"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
     </row>
     <row r="87" spans="1:12">
       <c r="A87">
@@ -6038,255 +6226,254 @@
       </c>
     </row>
     <row r="89" spans="1:12">
-      <c r="B89" s="18"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="30" t="s">
+      <c r="B89" s="17"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E89" s="20" t="s">
+      <c r="E89" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F89" s="21"/>
-      <c r="G89" s="21"/>
-      <c r="H89" s="21"/>
-      <c r="I89" s="21"/>
-      <c r="J89" s="22"/>
-      <c r="K89" s="21"/>
-      <c r="L89" s="22"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="20"/>
+      <c r="L89" s="21"/>
     </row>
     <row r="90" spans="1:12">
-      <c r="B90" s="23" t="s">
+      <c r="B90" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C90" s="24"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="26" t="s">
+      <c r="C90" s="23"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F90" s="26" t="s">
+      <c r="F90" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G90" s="26" t="s">
+      <c r="G90" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="H90" s="26" t="s">
+      <c r="H90" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="I90" s="26" t="s">
+      <c r="I90" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="J90" s="26" t="s">
+      <c r="J90" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="K90" s="26" t="s">
+      <c r="K90" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="L90" s="26" t="s">
+      <c r="L90" s="25" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:12">
-      <c r="B91" s="27" t="s">
+      <c r="B91" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C91" s="25"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="28"/>
-      <c r="J91" s="28"/>
-      <c r="K91" s="28"/>
-      <c r="L91" s="28"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="27"/>
+      <c r="K91" s="27"/>
+      <c r="L91" s="27"/>
     </row>
     <row r="92" spans="1:12">
-      <c r="B92" s="26" t="s">
+      <c r="B92" s="25" t="s">
         <v>68</v>
       </c>
       <c r="C92" s="15" t="s">
         <v>97</v>
       </c>
       <c r="D92" s="16"/>
-      <c r="E92" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F92" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G92" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="H92" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I92" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="J92" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="K92" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="L92" s="31" t="s">
+      <c r="E92" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F92" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G92" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H92" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I92" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="J92" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="K92" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L92" s="30" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:12">
-      <c r="B93" s="29"/>
+      <c r="B93" s="28"/>
       <c r="C93" s="15" t="s">
         <v>98</v>
       </c>
       <c r="D93" s="16"/>
-      <c r="E93" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F93" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G93" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="H93" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I93" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="J93" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="K93" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="L93" s="31" t="s">
+      <c r="E93" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F93" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G93" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H93" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I93" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="J93" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K93" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L93" s="30" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:12">
-      <c r="B94" s="28"/>
+      <c r="B94" s="27"/>
       <c r="C94" s="15" t="s">
         <v>99</v>
       </c>
       <c r="D94" s="16"/>
-      <c r="E94" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F94" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="G94" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="H94" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I94" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="J94" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="K94" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="L94" s="31" t="s">
+      <c r="E94" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F94" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G94" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H94" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I94" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="J94" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="K94" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="L94" s="30" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:12">
-      <c r="B95" s="26" t="s">
+      <c r="B95" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>96</v>
       </c>
       <c r="D95" s="16"/>
-      <c r="E95" s="31"/>
-      <c r="F95" s="31"/>
-      <c r="G95" s="31"/>
-      <c r="H95" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I95" s="31"/>
-      <c r="J95" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="K95" s="31"/>
-      <c r="L95" s="31" t="s">
+      <c r="E95" s="30"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I95" s="30"/>
+      <c r="J95" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K95" s="30"/>
+      <c r="L95" s="30" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:12">
-      <c r="B96" s="29"/>
-      <c r="C96" s="37">
+      <c r="B96" s="28"/>
+      <c r="C96" s="36">
         <v>0.05</v>
       </c>
       <c r="D96" s="16"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="31"/>
-      <c r="K96" s="31"/>
-      <c r="L96" s="31"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G96" s="30"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="30"/>
+      <c r="J96" s="30"/>
+      <c r="K96" s="30"/>
+      <c r="L96" s="30"/>
     </row>
     <row r="97" spans="2:14">
-      <c r="B97" s="29"/>
-      <c r="C97" s="37">
+      <c r="B97" s="28"/>
+      <c r="C97" s="36">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D97" s="16"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="J97" s="31"/>
-      <c r="K97" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="L97" s="31"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H97" s="30"/>
+      <c r="I97" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="J97" s="30"/>
+      <c r="K97" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="L97" s="30"/>
     </row>
     <row r="98" spans="2:14">
-      <c r="B98" s="28"/>
-      <c r="C98" s="37">
+      <c r="B98" s="27"/>
+      <c r="C98" s="36">
         <v>0.12</v>
       </c>
       <c r="D98" s="16"/>
-      <c r="E98" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F98" s="31"/>
-      <c r="G98" s="31"/>
-      <c r="H98" s="31"/>
-      <c r="I98" s="31"/>
-      <c r="J98" s="31"/>
-      <c r="K98" s="31"/>
-      <c r="L98" s="31"/>
+      <c r="E98" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="30"/>
+      <c r="I98" s="30"/>
+      <c r="J98" s="30"/>
+      <c r="K98" s="30"/>
+      <c r="L98" s="30"/>
     </row>
     <row r="99" spans="2:14">
-      <c r="B99" s="41" t="s">
+      <c r="B99" t="s">
         <v>100</v>
       </c>
-      <c r="C99" s="39"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="40"/>
-      <c r="F99" s="40"/>
-      <c r="G99" s="40"/>
-      <c r="H99" s="40"/>
-      <c r="I99" s="40"/>
-      <c r="J99" s="40"/>
-      <c r="K99" s="40"/>
-      <c r="L99" s="40"/>
+      <c r="C99" s="37"/>
+      <c r="E99" s="38"/>
+      <c r="F99" s="38"/>
+      <c r="G99" s="38"/>
+      <c r="H99" s="38"/>
+      <c r="I99" s="38"/>
+      <c r="J99" s="38"/>
+      <c r="K99" s="38"/>
+      <c r="L99" s="38"/>
     </row>
     <row r="100" spans="2:14">
       <c r="B100" s="5" t="s">
@@ -6301,17 +6488,17 @@
       <c r="E100" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F100" s="42" t="s">
+      <c r="F100" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="G100" s="40"/>
-      <c r="H100" s="40"/>
-      <c r="I100" s="40"/>
-      <c r="J100" s="40"/>
-      <c r="K100" s="40"/>
-      <c r="L100" s="40"/>
-      <c r="M100" s="40"/>
-      <c r="N100" s="40"/>
+      <c r="G100" s="38"/>
+      <c r="H100" s="38"/>
+      <c r="I100" s="38"/>
+      <c r="J100" s="38"/>
+      <c r="K100" s="38"/>
+      <c r="L100" s="38"/>
+      <c r="M100" s="38"/>
+      <c r="N100" s="38"/>
     </row>
     <row r="101" spans="2:14">
       <c r="B101" s="3">
@@ -6329,14 +6516,14 @@
       <c r="F101" s="12">
         <v>0.12</v>
       </c>
-      <c r="G101" s="40"/>
-      <c r="H101" s="40"/>
-      <c r="I101" s="40"/>
-      <c r="J101" s="40"/>
-      <c r="K101" s="40"/>
-      <c r="L101" s="40"/>
-      <c r="M101" s="40"/>
-      <c r="N101" s="40"/>
+      <c r="G101" s="38"/>
+      <c r="H101" s="38"/>
+      <c r="I101" s="38"/>
+      <c r="J101" s="38"/>
+      <c r="K101" s="38"/>
+      <c r="L101" s="38"/>
+      <c r="M101" s="38"/>
+      <c r="N101" s="38"/>
     </row>
     <row r="102" spans="2:14">
       <c r="B102" s="3">
@@ -6354,14 +6541,14 @@
       <c r="F102" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G102" s="40"/>
-      <c r="H102" s="40"/>
-      <c r="I102" s="40"/>
-      <c r="J102" s="40"/>
-      <c r="K102" s="40"/>
-      <c r="L102" s="40"/>
-      <c r="M102" s="40"/>
-      <c r="N102" s="40"/>
+      <c r="G102" s="38"/>
+      <c r="H102" s="38"/>
+      <c r="I102" s="38"/>
+      <c r="J102" s="38"/>
+      <c r="K102" s="38"/>
+      <c r="L102" s="38"/>
+      <c r="M102" s="38"/>
+      <c r="N102" s="38"/>
     </row>
     <row r="103" spans="2:14">
       <c r="B103" s="3">
@@ -6379,14 +6566,14 @@
       <c r="F103" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G103" s="40"/>
-      <c r="H103" s="40"/>
-      <c r="I103" s="40"/>
-      <c r="J103" s="40"/>
-      <c r="K103" s="40"/>
-      <c r="L103" s="40"/>
-      <c r="M103" s="40"/>
-      <c r="N103" s="40"/>
+      <c r="G103" s="38"/>
+      <c r="H103" s="38"/>
+      <c r="I103" s="38"/>
+      <c r="J103" s="38"/>
+      <c r="K103" s="38"/>
+      <c r="L103" s="38"/>
+      <c r="M103" s="38"/>
+      <c r="N103" s="38"/>
     </row>
     <row r="104" spans="2:14">
       <c r="B104" s="3">
@@ -6404,14 +6591,14 @@
       <c r="F104" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G104" s="40"/>
-      <c r="H104" s="40"/>
-      <c r="I104" s="40"/>
-      <c r="J104" s="40"/>
-      <c r="K104" s="40"/>
-      <c r="L104" s="40"/>
-      <c r="M104" s="40"/>
-      <c r="N104" s="40"/>
+      <c r="G104" s="38"/>
+      <c r="H104" s="38"/>
+      <c r="I104" s="38"/>
+      <c r="J104" s="38"/>
+      <c r="K104" s="38"/>
+      <c r="L104" s="38"/>
+      <c r="M104" s="38"/>
+      <c r="N104" s="38"/>
     </row>
     <row r="105" spans="2:14">
       <c r="B105" s="3">
@@ -6429,14 +6616,14 @@
       <c r="F105" s="12">
         <v>0.05</v>
       </c>
-      <c r="G105" s="40"/>
-      <c r="H105" s="40"/>
-      <c r="I105" s="40"/>
-      <c r="J105" s="40"/>
-      <c r="K105" s="40"/>
-      <c r="L105" s="40"/>
-      <c r="M105" s="40"/>
-      <c r="N105" s="40"/>
+      <c r="G105" s="38"/>
+      <c r="H105" s="38"/>
+      <c r="I105" s="38"/>
+      <c r="J105" s="38"/>
+      <c r="K105" s="38"/>
+      <c r="L105" s="38"/>
+      <c r="M105" s="38"/>
+      <c r="N105" s="38"/>
     </row>
     <row r="106" spans="2:14">
       <c r="B106" s="3">
@@ -6454,14 +6641,14 @@
       <c r="F106" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="G106" s="40"/>
-      <c r="H106" s="40"/>
-      <c r="I106" s="40"/>
-      <c r="J106" s="40"/>
-      <c r="K106" s="40"/>
-      <c r="L106" s="40"/>
-      <c r="M106" s="40"/>
-      <c r="N106" s="40"/>
+      <c r="G106" s="38"/>
+      <c r="H106" s="38"/>
+      <c r="I106" s="38"/>
+      <c r="J106" s="38"/>
+      <c r="K106" s="38"/>
+      <c r="L106" s="38"/>
+      <c r="M106" s="38"/>
+      <c r="N106" s="38"/>
     </row>
     <row r="107" spans="2:14">
       <c r="B107" s="3">
@@ -6479,14 +6666,14 @@
       <c r="F107" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="G107" s="40"/>
-      <c r="H107" s="40"/>
-      <c r="I107" s="40"/>
-      <c r="J107" s="40"/>
-      <c r="K107" s="40"/>
-      <c r="L107" s="40"/>
-      <c r="M107" s="40"/>
-      <c r="N107" s="40"/>
+      <c r="G107" s="38"/>
+      <c r="H107" s="38"/>
+      <c r="I107" s="38"/>
+      <c r="J107" s="38"/>
+      <c r="K107" s="38"/>
+      <c r="L107" s="38"/>
+      <c r="M107" s="38"/>
+      <c r="N107" s="38"/>
     </row>
     <row r="108" spans="2:14">
       <c r="B108" s="3">
@@ -6504,14 +6691,14 @@
       <c r="F108" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="G108" s="40"/>
-      <c r="H108" s="40"/>
-      <c r="I108" s="40"/>
-      <c r="J108" s="40"/>
-      <c r="K108" s="40"/>
-      <c r="L108" s="40"/>
-      <c r="M108" s="40"/>
-      <c r="N108" s="40"/>
+      <c r="G108" s="38"/>
+      <c r="H108" s="38"/>
+      <c r="I108" s="38"/>
+      <c r="J108" s="38"/>
+      <c r="K108" s="38"/>
+      <c r="L108" s="38"/>
+      <c r="M108" s="38"/>
+      <c r="N108" s="38"/>
     </row>
     <row r="109" spans="2:14">
       <c r="B109" t="s">
@@ -6519,240 +6706,240 @@
       </c>
     </row>
     <row r="110" spans="2:14">
-      <c r="B110" s="18"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="30" t="s">
+      <c r="B110" s="17"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E110" s="20" t="s">
+      <c r="E110" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F110" s="21"/>
-      <c r="G110" s="21"/>
-      <c r="H110" s="21"/>
-      <c r="I110" s="21"/>
-      <c r="J110" s="22"/>
-      <c r="K110" s="21"/>
-      <c r="L110" s="22"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="20"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="21"/>
+      <c r="K110" s="20"/>
+      <c r="L110" s="21"/>
     </row>
     <row r="111" spans="2:14">
-      <c r="B111" s="23" t="s">
+      <c r="B111" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C111" s="24"/>
-      <c r="D111" s="25"/>
-      <c r="E111" s="26" t="s">
+      <c r="C111" s="23"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F111" s="26" t="s">
+      <c r="F111" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G111" s="26" t="s">
+      <c r="G111" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="H111" s="26" t="s">
+      <c r="H111" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="I111" s="26" t="s">
+      <c r="I111" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="J111" s="26" t="s">
+      <c r="J111" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="K111" s="26" t="s">
+      <c r="K111" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="L111" s="26" t="s">
+      <c r="L111" s="25" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="112" spans="2:14">
-      <c r="B112" s="27" t="s">
+      <c r="B112" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C112" s="25"/>
-      <c r="D112" s="24"/>
-      <c r="E112" s="28"/>
-      <c r="F112" s="28"/>
-      <c r="G112" s="28"/>
-      <c r="H112" s="28"/>
-      <c r="I112" s="28"/>
-      <c r="J112" s="28"/>
-      <c r="K112" s="28"/>
-      <c r="L112" s="28"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="27"/>
+      <c r="K112" s="27"/>
+      <c r="L112" s="27"/>
     </row>
     <row r="113" spans="2:12">
-      <c r="B113" s="26" t="s">
+      <c r="B113" s="25" t="s">
         <v>68</v>
       </c>
       <c r="C113" s="15" t="s">
         <v>97</v>
       </c>
       <c r="D113" s="16"/>
-      <c r="E113" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F113" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G113" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="H113" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I113" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="J113" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="K113" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="L113" s="35" t="s">
+      <c r="E113" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F113" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G113" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H113" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I113" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="J113" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="K113" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="L113" s="34" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="114" spans="2:12">
-      <c r="B114" s="29"/>
+      <c r="B114" s="28"/>
       <c r="C114" s="15" t="s">
         <v>98</v>
       </c>
       <c r="D114" s="16"/>
-      <c r="E114" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F114" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G114" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="H114" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I114" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="J114" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="K114" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="L114" s="36" t="s">
+      <c r="E114" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F114" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G114" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H114" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I114" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="J114" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="K114" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="L114" s="35" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="115" spans="2:12">
-      <c r="B115" s="28"/>
+      <c r="B115" s="27"/>
       <c r="C115" s="15" t="s">
         <v>99</v>
       </c>
       <c r="D115" s="16"/>
-      <c r="E115" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F115" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="G115" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="H115" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I115" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="J115" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="K115" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="L115" s="35" t="s">
+      <c r="E115" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F115" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G115" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H115" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I115" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="J115" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="K115" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="L115" s="34" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="116" spans="2:12">
-      <c r="B116" s="26" t="s">
+      <c r="B116" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C116" s="15" t="s">
         <v>96</v>
       </c>
       <c r="D116" s="16"/>
-      <c r="E116" s="31"/>
-      <c r="F116" s="31"/>
-      <c r="G116" s="31"/>
-      <c r="H116" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I116" s="31"/>
-      <c r="J116" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="K116" s="31"/>
-      <c r="L116" s="35" t="s">
+      <c r="E116" s="30"/>
+      <c r="F116" s="30"/>
+      <c r="G116" s="30"/>
+      <c r="H116" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I116" s="30"/>
+      <c r="J116" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="K116" s="30"/>
+      <c r="L116" s="34" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="117" spans="2:12">
-      <c r="B117" s="29"/>
-      <c r="C117" s="37">
+      <c r="B117" s="28"/>
+      <c r="C117" s="36">
         <v>0.05</v>
       </c>
       <c r="D117" s="16"/>
-      <c r="E117" s="31"/>
-      <c r="F117" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G117" s="31"/>
-      <c r="H117" s="31"/>
-      <c r="I117" s="31"/>
-      <c r="J117" s="31"/>
-      <c r="K117" s="31"/>
-      <c r="L117" s="31"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G117" s="30"/>
+      <c r="H117" s="30"/>
+      <c r="I117" s="30"/>
+      <c r="J117" s="30"/>
+      <c r="K117" s="30"/>
+      <c r="L117" s="30"/>
     </row>
     <row r="118" spans="2:12">
-      <c r="B118" s="29"/>
-      <c r="C118" s="37">
+      <c r="B118" s="28"/>
+      <c r="C118" s="36">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D118" s="16"/>
-      <c r="E118" s="31"/>
-      <c r="F118" s="31"/>
-      <c r="G118" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="H118" s="31"/>
-      <c r="I118" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="J118" s="31"/>
-      <c r="K118" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="L118" s="31"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="30"/>
+      <c r="G118" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H118" s="30"/>
+      <c r="I118" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="J118" s="30"/>
+      <c r="K118" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="L118" s="30"/>
     </row>
     <row r="119" spans="2:12">
-      <c r="B119" s="28"/>
-      <c r="C119" s="37">
+      <c r="B119" s="27"/>
+      <c r="C119" s="36">
         <v>0.12</v>
       </c>
       <c r="D119" s="16"/>
-      <c r="E119" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F119" s="31"/>
-      <c r="G119" s="31"/>
-      <c r="H119" s="31"/>
-      <c r="I119" s="31"/>
-      <c r="J119" s="31"/>
-      <c r="K119" s="31"/>
-      <c r="L119" s="31"/>
+      <c r="E119" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F119" s="30"/>
+      <c r="G119" s="30"/>
+      <c r="H119" s="30"/>
+      <c r="I119" s="30"/>
+      <c r="J119" s="30"/>
+      <c r="K119" s="30"/>
+      <c r="L119" s="30"/>
     </row>
     <row r="120" spans="2:12">
       <c r="B120" t="s">
@@ -6760,217 +6947,216 @@
       </c>
     </row>
     <row r="121" spans="2:12">
-      <c r="B121" s="18"/>
-      <c r="C121" s="19"/>
-      <c r="D121" s="30" t="s">
+      <c r="B121" s="17"/>
+      <c r="C121" s="18"/>
+      <c r="D121" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E121" s="20" t="s">
+      <c r="E121" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F121" s="21"/>
-      <c r="G121" s="21"/>
-      <c r="H121" s="21"/>
-      <c r="I121" s="21"/>
-      <c r="J121" s="22"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="20"/>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="21"/>
     </row>
     <row r="122" spans="2:12">
-      <c r="B122" s="23" t="s">
+      <c r="B122" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C122" s="24"/>
-      <c r="D122" s="25"/>
-      <c r="E122" s="26" t="s">
+      <c r="C122" s="23"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F122" s="26" t="s">
+      <c r="F122" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G122" s="26" t="s">
+      <c r="G122" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="H122" s="26" t="s">
+      <c r="H122" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="I122" s="26" t="s">
+      <c r="I122" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="J122" s="26" t="s">
+      <c r="J122" s="25" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="123" spans="2:12">
-      <c r="B123" s="27" t="s">
+      <c r="B123" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C123" s="25"/>
-      <c r="D123" s="24"/>
-      <c r="E123" s="28"/>
-      <c r="F123" s="28"/>
-      <c r="G123" s="28"/>
-      <c r="H123" s="28"/>
-      <c r="I123" s="28"/>
-      <c r="J123" s="28"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="23"/>
+      <c r="E123" s="27"/>
+      <c r="F123" s="27"/>
+      <c r="G123" s="27"/>
+      <c r="H123" s="27"/>
+      <c r="I123" s="27"/>
+      <c r="J123" s="27"/>
     </row>
     <row r="124" spans="2:12">
-      <c r="B124" s="26" t="s">
+      <c r="B124" s="25" t="s">
         <v>68</v>
       </c>
       <c r="C124" s="15" t="s">
         <v>97</v>
       </c>
       <c r="D124" s="16"/>
-      <c r="E124" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F124" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G124" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="H124" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I124" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="J124" s="38" t="s">
+      <c r="E124" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F124" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G124" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H124" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I124" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="J124" s="30" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="125" spans="2:12">
-      <c r="B125" s="29"/>
+      <c r="B125" s="28"/>
       <c r="C125" s="15" t="s">
         <v>98</v>
       </c>
       <c r="D125" s="16"/>
-      <c r="E125" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F125" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G125" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="H125" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I125" s="38" t="s">
+      <c r="E125" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F125" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G125" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H125" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I125" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J125" s="38" t="s">
+      <c r="J125" s="30" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="126" spans="2:12">
-      <c r="B126" s="28"/>
+      <c r="B126" s="27"/>
       <c r="C126" s="15" t="s">
         <v>99</v>
       </c>
       <c r="D126" s="16"/>
-      <c r="E126" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F126" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="G126" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="H126" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I126" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="J126" s="38" t="s">
+      <c r="E126" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F126" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G126" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H126" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I126" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="J126" s="30" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="127" spans="2:12">
-      <c r="B127" s="26" t="s">
+      <c r="B127" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C127" s="15" t="s">
         <v>96</v>
       </c>
       <c r="D127" s="16"/>
-      <c r="E127" s="31"/>
-      <c r="F127" s="31"/>
-      <c r="G127" s="31"/>
-      <c r="H127" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I127" s="38"/>
-      <c r="J127" s="38" t="s">
+      <c r="E127" s="30"/>
+      <c r="F127" s="30"/>
+      <c r="G127" s="30"/>
+      <c r="H127" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I127" s="30"/>
+      <c r="J127" s="30" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="128" spans="2:12">
-      <c r="B128" s="29"/>
-      <c r="C128" s="37">
+      <c r="B128" s="28"/>
+      <c r="C128" s="36">
         <v>0.05</v>
       </c>
       <c r="D128" s="16"/>
-      <c r="E128" s="31"/>
-      <c r="F128" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G128" s="31"/>
-      <c r="H128" s="31"/>
-      <c r="I128" s="38"/>
-      <c r="J128" s="38"/>
-    </row>
-    <row r="129" spans="2:14">
-      <c r="B129" s="29"/>
-      <c r="C129" s="37">
+      <c r="E128" s="30"/>
+      <c r="F128" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G128" s="30"/>
+      <c r="H128" s="30"/>
+      <c r="I128" s="30"/>
+      <c r="J128" s="30"/>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="B129" s="28"/>
+      <c r="C129" s="36">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D129" s="16"/>
-      <c r="E129" s="31"/>
-      <c r="F129" s="31"/>
-      <c r="G129" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="H129" s="31"/>
-      <c r="I129" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="J129" s="38"/>
-    </row>
-    <row r="130" spans="2:14">
-      <c r="B130" s="28"/>
-      <c r="C130" s="37">
+      <c r="E129" s="30"/>
+      <c r="F129" s="30"/>
+      <c r="G129" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H129" s="30"/>
+      <c r="I129" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="J129" s="30"/>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="B130" s="27"/>
+      <c r="C130" s="36">
         <v>0.12</v>
       </c>
       <c r="D130" s="16"/>
-      <c r="E130" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F130" s="31"/>
-      <c r="G130" s="31"/>
-      <c r="H130" s="31"/>
-      <c r="I130" s="31"/>
-      <c r="J130" s="31"/>
-    </row>
-    <row r="131" spans="2:14">
-      <c r="B131" s="41" t="s">
+      <c r="E130" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F130" s="30"/>
+      <c r="G130" s="30"/>
+      <c r="H130" s="30"/>
+      <c r="I130" s="30"/>
+      <c r="J130" s="30"/>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="B131" t="s">
         <v>100</v>
       </c>
-      <c r="C131" s="39"/>
-      <c r="D131" s="17"/>
-      <c r="E131" s="40"/>
-      <c r="F131" s="40"/>
-      <c r="G131" s="40"/>
-      <c r="H131" s="40"/>
-      <c r="I131" s="40"/>
-      <c r="J131" s="40"/>
-      <c r="K131" s="40"/>
-      <c r="L131" s="40"/>
-    </row>
-    <row r="132" spans="2:14">
+      <c r="C131" s="37"/>
+      <c r="E131" s="38"/>
+      <c r="F131" s="38"/>
+      <c r="G131" s="38"/>
+      <c r="H131" s="38"/>
+      <c r="I131" s="38"/>
+      <c r="J131" s="38"/>
+      <c r="K131" s="38"/>
+      <c r="L131" s="38"/>
+    </row>
+    <row r="132" spans="1:14">
       <c r="B132" s="5" t="s">
         <v>2</v>
       </c>
@@ -6983,19 +7169,19 @@
       <c r="E132" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F132" s="42" t="s">
+      <c r="F132" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="G132" s="40"/>
-      <c r="H132" s="40"/>
-      <c r="I132" s="40"/>
-      <c r="J132" s="40"/>
-      <c r="K132" s="40"/>
-      <c r="L132" s="40"/>
-      <c r="M132" s="40"/>
-      <c r="N132" s="40"/>
-    </row>
-    <row r="133" spans="2:14">
+      <c r="G132" s="38"/>
+      <c r="H132" s="38"/>
+      <c r="I132" s="38"/>
+      <c r="J132" s="38"/>
+      <c r="K132" s="38"/>
+      <c r="L132" s="38"/>
+      <c r="M132" s="38"/>
+      <c r="N132" s="38"/>
+    </row>
+    <row r="133" spans="1:14">
       <c r="B133" s="3">
         <v>1</v>
       </c>
@@ -7011,16 +7197,16 @@
       <c r="F133" s="12">
         <v>0.12</v>
       </c>
-      <c r="G133" s="40"/>
-      <c r="H133" s="40"/>
-      <c r="I133" s="40"/>
-      <c r="J133" s="40"/>
-      <c r="K133" s="40"/>
-      <c r="L133" s="40"/>
-      <c r="M133" s="40"/>
-      <c r="N133" s="40"/>
-    </row>
-    <row r="134" spans="2:14">
+      <c r="G133" s="38"/>
+      <c r="H133" s="38"/>
+      <c r="I133" s="38"/>
+      <c r="J133" s="38"/>
+      <c r="K133" s="38"/>
+      <c r="L133" s="38"/>
+      <c r="M133" s="38"/>
+      <c r="N133" s="38"/>
+    </row>
+    <row r="134" spans="1:14">
       <c r="B134" s="3">
         <v>2</v>
       </c>
@@ -7036,16 +7222,16 @@
       <c r="F134" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G134" s="40"/>
-      <c r="H134" s="40"/>
-      <c r="I134" s="40"/>
-      <c r="J134" s="40"/>
-      <c r="K134" s="40"/>
-      <c r="L134" s="40"/>
-      <c r="M134" s="40"/>
-      <c r="N134" s="40"/>
-    </row>
-    <row r="135" spans="2:14">
+      <c r="G134" s="38"/>
+      <c r="H134" s="38"/>
+      <c r="I134" s="38"/>
+      <c r="J134" s="38"/>
+      <c r="K134" s="38"/>
+      <c r="L134" s="38"/>
+      <c r="M134" s="38"/>
+      <c r="N134" s="38"/>
+    </row>
+    <row r="135" spans="1:14">
       <c r="B135" s="3">
         <v>3</v>
       </c>
@@ -7061,16 +7247,16 @@
       <c r="F135" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G135" s="40"/>
-      <c r="H135" s="40"/>
-      <c r="I135" s="40"/>
-      <c r="J135" s="40"/>
-      <c r="K135" s="40"/>
-      <c r="L135" s="40"/>
-      <c r="M135" s="40"/>
-      <c r="N135" s="40"/>
-    </row>
-    <row r="136" spans="2:14">
+      <c r="G135" s="38"/>
+      <c r="H135" s="38"/>
+      <c r="I135" s="38"/>
+      <c r="J135" s="38"/>
+      <c r="K135" s="38"/>
+      <c r="L135" s="38"/>
+      <c r="M135" s="38"/>
+      <c r="N135" s="38"/>
+    </row>
+    <row r="136" spans="1:14">
       <c r="B136" s="3">
         <v>4</v>
       </c>
@@ -7086,16 +7272,16 @@
       <c r="F136" s="12">
         <v>0.05</v>
       </c>
-      <c r="G136" s="40"/>
-      <c r="H136" s="40"/>
-      <c r="I136" s="40"/>
-      <c r="J136" s="40"/>
-      <c r="K136" s="40"/>
-      <c r="L136" s="40"/>
-      <c r="M136" s="40"/>
-      <c r="N136" s="40"/>
-    </row>
-    <row r="137" spans="2:14">
+      <c r="G136" s="38"/>
+      <c r="H136" s="38"/>
+      <c r="I136" s="38"/>
+      <c r="J136" s="38"/>
+      <c r="K136" s="38"/>
+      <c r="L136" s="38"/>
+      <c r="M136" s="38"/>
+      <c r="N136" s="38"/>
+    </row>
+    <row r="137" spans="1:14">
       <c r="B137" s="3">
         <v>5</v>
       </c>
@@ -7111,16 +7297,16 @@
       <c r="F137" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="G137" s="40"/>
-      <c r="H137" s="40"/>
-      <c r="I137" s="40"/>
-      <c r="J137" s="40"/>
-      <c r="K137" s="40"/>
-      <c r="L137" s="40"/>
-      <c r="M137" s="40"/>
-      <c r="N137" s="40"/>
-    </row>
-    <row r="138" spans="2:14">
+      <c r="G137" s="38"/>
+      <c r="H137" s="38"/>
+      <c r="I137" s="38"/>
+      <c r="J137" s="38"/>
+      <c r="K137" s="38"/>
+      <c r="L137" s="38"/>
+      <c r="M137" s="38"/>
+      <c r="N137" s="38"/>
+    </row>
+    <row r="138" spans="1:14">
       <c r="B138" s="3">
         <v>6</v>
       </c>
@@ -7136,14 +7322,1276 @@
       <c r="F138" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="G138" s="40"/>
-      <c r="H138" s="40"/>
-      <c r="I138" s="40"/>
-      <c r="J138" s="40"/>
-      <c r="K138" s="40"/>
-      <c r="L138" s="40"/>
-      <c r="M138" s="40"/>
-      <c r="N138" s="40"/>
+      <c r="G138" s="38"/>
+      <c r="H138" s="38"/>
+      <c r="I138" s="38"/>
+      <c r="J138" s="38"/>
+      <c r="K138" s="38"/>
+      <c r="L138" s="38"/>
+      <c r="M138" s="38"/>
+      <c r="N138" s="38"/>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="B139" s="40"/>
+      <c r="C139" s="41"/>
+      <c r="D139" s="41"/>
+      <c r="E139" s="41"/>
+      <c r="F139" s="42"/>
+      <c r="G139" s="38"/>
+      <c r="H139" s="38"/>
+      <c r="I139" s="38"/>
+      <c r="J139" s="38"/>
+      <c r="K139" s="38"/>
+      <c r="L139" s="38"/>
+      <c r="M139" s="38"/>
+      <c r="N139" s="38"/>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="A140">
+        <v>2.5</v>
+      </c>
+      <c r="B140" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
+      <c r="B141" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="B142" s="17"/>
+      <c r="C142" s="18"/>
+      <c r="D142" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E142" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F142" s="20"/>
+      <c r="G142" s="20"/>
+      <c r="H142" s="20"/>
+      <c r="I142" s="20"/>
+      <c r="J142" s="20"/>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="B143" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C143" s="23"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F143" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G143" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H143" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I143" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="J143" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
+      <c r="B144" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C144" s="24"/>
+      <c r="D144" s="23"/>
+      <c r="E144" s="27"/>
+      <c r="F144" s="27"/>
+      <c r="G144" s="27"/>
+      <c r="H144" s="27"/>
+      <c r="I144" s="27"/>
+      <c r="J144" s="27"/>
+    </row>
+    <row r="145" spans="2:18">
+      <c r="B145" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C145" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D145" s="16"/>
+      <c r="E145" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F145" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G145" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H145" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I145" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="J145" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="146" spans="2:18">
+      <c r="B146" s="28"/>
+      <c r="C146" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D146" s="16"/>
+      <c r="E146" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F146" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G146" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H146" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I146" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="J146" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="147" spans="2:18">
+      <c r="B147" s="28"/>
+      <c r="C147" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D147" s="16"/>
+      <c r="E147" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F147" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G147" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H147" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I147" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="J147" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="148" spans="2:18">
+      <c r="B148" s="27"/>
+      <c r="C148" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D148" s="16"/>
+      <c r="E148" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F148" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G148" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H148" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I148" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="J148" s="30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="149" spans="2:18">
+      <c r="B149" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C149" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D149" s="16"/>
+      <c r="E149" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F149" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G149" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H149" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I149" s="30"/>
+      <c r="J149" s="30"/>
+    </row>
+    <row r="150" spans="2:18">
+      <c r="B150" s="28"/>
+      <c r="C150" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D150" s="16"/>
+      <c r="E150" s="30"/>
+      <c r="F150" s="30"/>
+      <c r="G150" s="30"/>
+      <c r="H150" s="30"/>
+      <c r="I150" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="J150" s="30"/>
+    </row>
+    <row r="151" spans="2:18">
+      <c r="B151" s="28"/>
+      <c r="C151" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D151" s="16"/>
+      <c r="E151" s="30"/>
+      <c r="F151" s="30"/>
+      <c r="G151" s="30"/>
+      <c r="H151" s="30"/>
+      <c r="I151" s="30"/>
+      <c r="J151" s="30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="152" spans="2:18">
+      <c r="B152" s="27"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="16"/>
+      <c r="E152" s="30"/>
+      <c r="F152" s="30"/>
+      <c r="G152" s="30"/>
+      <c r="H152" s="30"/>
+      <c r="I152" s="30"/>
+      <c r="J152" s="30"/>
+    </row>
+    <row r="153" spans="2:18">
+      <c r="B153" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="154" spans="2:18">
+      <c r="B154" s="17"/>
+      <c r="C154" s="18"/>
+      <c r="D154" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E154" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F154" s="20"/>
+      <c r="G154" s="20"/>
+      <c r="H154" s="20"/>
+      <c r="I154" s="20"/>
+      <c r="J154" s="20"/>
+      <c r="K154" s="20"/>
+      <c r="L154" s="20"/>
+      <c r="M154" s="20"/>
+      <c r="N154" s="20"/>
+      <c r="O154" s="20"/>
+      <c r="P154" s="20"/>
+      <c r="Q154" s="20"/>
+      <c r="R154" s="20"/>
+    </row>
+    <row r="155" spans="2:18">
+      <c r="B155" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C155" s="23"/>
+      <c r="D155" s="24"/>
+      <c r="E155" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F155" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G155" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H155" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I155" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="J155" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="K155" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="L155" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="M155" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="N155" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="O155" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="P155" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q155" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="R155" s="25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="156" spans="2:18">
+      <c r="B156" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C156" s="24"/>
+      <c r="D156" s="23"/>
+      <c r="E156" s="27"/>
+      <c r="F156" s="27"/>
+      <c r="G156" s="27"/>
+      <c r="H156" s="27"/>
+      <c r="I156" s="27"/>
+      <c r="J156" s="27"/>
+      <c r="K156" s="27"/>
+      <c r="L156" s="27"/>
+      <c r="M156" s="27"/>
+      <c r="N156" s="27"/>
+      <c r="O156" s="27"/>
+      <c r="P156" s="27"/>
+      <c r="Q156" s="27"/>
+      <c r="R156" s="27"/>
+    </row>
+    <row r="157" spans="2:18">
+      <c r="B157" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C157" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D157" s="16"/>
+      <c r="E157" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F157" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G157" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H157" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I157" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="J157" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K157" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="L157" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="M157" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="N157" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="O157" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="P157" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q157" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="R157" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="158" spans="2:18">
+      <c r="B158" s="28"/>
+      <c r="C158" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D158" s="16"/>
+      <c r="E158" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="F158" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="G158" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="H158" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="I158" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J158" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="K158" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="L158" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="M158" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="N158" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="O158" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="P158" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q158" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="R158" s="30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="159" spans="2:18">
+      <c r="B159" s="27"/>
+      <c r="C159" s="15"/>
+      <c r="D159" s="16"/>
+      <c r="E159" s="30"/>
+      <c r="F159" s="30"/>
+      <c r="G159" s="30"/>
+      <c r="H159" s="30"/>
+      <c r="I159" s="30"/>
+      <c r="J159" s="30"/>
+      <c r="K159" s="30"/>
+      <c r="L159" s="30"/>
+      <c r="M159" s="30"/>
+      <c r="N159" s="30"/>
+      <c r="O159" s="30"/>
+      <c r="P159" s="30"/>
+      <c r="Q159" s="30"/>
+      <c r="R159" s="30"/>
+    </row>
+    <row r="160" spans="2:18">
+      <c r="B160" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C160" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D160" s="16"/>
+      <c r="E160" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F160" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G160" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H160" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I160" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="J160" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K160" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="L160" s="30"/>
+      <c r="M160" s="30"/>
+      <c r="N160" s="30"/>
+      <c r="O160" s="30"/>
+      <c r="P160" s="30"/>
+      <c r="Q160" s="30"/>
+      <c r="R160" s="30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19">
+      <c r="B161" s="28"/>
+      <c r="C161" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D161" s="16"/>
+      <c r="E161" s="30"/>
+      <c r="F161" s="30"/>
+      <c r="G161" s="30"/>
+      <c r="H161" s="30"/>
+      <c r="I161" s="30"/>
+      <c r="J161" s="30"/>
+      <c r="K161" s="30"/>
+      <c r="L161" s="30"/>
+      <c r="M161" s="30"/>
+      <c r="N161" s="30"/>
+      <c r="O161" s="30"/>
+      <c r="P161" s="30"/>
+      <c r="Q161" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="R161" s="30"/>
+    </row>
+    <row r="162" spans="1:19">
+      <c r="B162" s="28"/>
+      <c r="C162" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D162" s="16"/>
+      <c r="E162" s="30"/>
+      <c r="F162" s="30"/>
+      <c r="G162" s="30"/>
+      <c r="H162" s="30"/>
+      <c r="I162" s="30"/>
+      <c r="J162" s="30"/>
+      <c r="K162" s="30"/>
+      <c r="L162" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="M162" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="N162" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="O162" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="P162" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q162" s="30"/>
+      <c r="R162" s="30"/>
+    </row>
+    <row r="163" spans="1:19">
+      <c r="B163" s="27"/>
+      <c r="C163" s="15"/>
+      <c r="D163" s="16"/>
+      <c r="E163" s="30"/>
+      <c r="F163" s="30"/>
+      <c r="G163" s="30"/>
+      <c r="H163" s="30"/>
+      <c r="I163" s="30"/>
+      <c r="J163" s="30"/>
+      <c r="K163" s="30"/>
+      <c r="L163" s="30"/>
+      <c r="M163" s="30"/>
+      <c r="N163" s="30"/>
+      <c r="O163" s="30"/>
+      <c r="P163" s="30"/>
+      <c r="Q163" s="30"/>
+      <c r="R163" s="30"/>
+    </row>
+    <row r="164" spans="1:19">
+      <c r="C164" s="40"/>
+      <c r="D164" s="40"/>
+      <c r="E164" s="43"/>
+      <c r="F164" s="43"/>
+      <c r="G164" s="43"/>
+      <c r="H164" s="43"/>
+      <c r="I164" s="43"/>
+      <c r="J164" s="43"/>
+      <c r="K164" s="43"/>
+      <c r="L164" s="43"/>
+      <c r="M164" s="43"/>
+      <c r="N164" s="43"/>
+      <c r="O164" s="43"/>
+      <c r="P164" s="43"/>
+      <c r="Q164" s="43"/>
+      <c r="R164" s="43"/>
+    </row>
+    <row r="165" spans="1:19">
+      <c r="A165">
+        <v>2.6</v>
+      </c>
+      <c r="B165" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19">
+      <c r="B166" s="17"/>
+      <c r="C166" s="18"/>
+      <c r="D166" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E166" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F166" s="20"/>
+      <c r="G166" s="20"/>
+      <c r="H166" s="20"/>
+      <c r="I166" s="20"/>
+      <c r="J166" s="20"/>
+      <c r="K166" s="20"/>
+      <c r="L166" s="20"/>
+      <c r="M166" s="20"/>
+      <c r="N166" s="20"/>
+      <c r="O166" s="20"/>
+      <c r="P166" s="20"/>
+      <c r="Q166" s="20"/>
+      <c r="R166" s="20"/>
+      <c r="S166" s="20"/>
+    </row>
+    <row r="167" spans="1:19">
+      <c r="B167" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C167" s="23"/>
+      <c r="D167" s="24"/>
+      <c r="E167" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F167" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G167" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H167" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I167" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="J167" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="K167" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="L167" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="M167" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="N167" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="O167" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="P167" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q167" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="R167" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="S167" s="25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19">
+      <c r="B168" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C168" s="24"/>
+      <c r="D168" s="23"/>
+      <c r="E168" s="27"/>
+      <c r="F168" s="27"/>
+      <c r="G168" s="27"/>
+      <c r="H168" s="27"/>
+      <c r="I168" s="27"/>
+      <c r="J168" s="27"/>
+      <c r="K168" s="27"/>
+      <c r="L168" s="27"/>
+      <c r="M168" s="27"/>
+      <c r="N168" s="27"/>
+      <c r="O168" s="27"/>
+      <c r="P168" s="27"/>
+      <c r="Q168" s="27"/>
+      <c r="R168" s="27"/>
+      <c r="S168" s="27"/>
+    </row>
+    <row r="169" spans="1:19">
+      <c r="B169" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C169" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D169" s="16"/>
+      <c r="E169" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="F169" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="G169" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="H169" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="I169" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="J169" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="K169" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="L169" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="M169" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="N169" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="O169" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="P169" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q169" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="R169" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="S169" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19">
+      <c r="B170" s="28"/>
+      <c r="C170" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D170" s="16"/>
+      <c r="E170" s="44">
+        <v>3000</v>
+      </c>
+      <c r="F170" s="44">
+        <v>5000</v>
+      </c>
+      <c r="G170" s="44">
+        <v>5000</v>
+      </c>
+      <c r="H170" s="44">
+        <v>10000</v>
+      </c>
+      <c r="I170" s="44">
+        <v>10000</v>
+      </c>
+      <c r="J170" s="44">
+        <v>3000</v>
+      </c>
+      <c r="K170" s="44">
+        <v>5000</v>
+      </c>
+      <c r="L170" s="44">
+        <v>5000</v>
+      </c>
+      <c r="M170" s="44">
+        <v>10000</v>
+      </c>
+      <c r="N170" s="44">
+        <v>10000</v>
+      </c>
+      <c r="O170" s="44">
+        <v>3000</v>
+      </c>
+      <c r="P170" s="44">
+        <v>5000</v>
+      </c>
+      <c r="Q170" s="44">
+        <v>5000</v>
+      </c>
+      <c r="R170" s="44">
+        <v>10000</v>
+      </c>
+      <c r="S170" s="44">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19">
+      <c r="B171" s="27"/>
+      <c r="C171" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D171" s="16"/>
+      <c r="E171" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F171" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G171" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H171" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I171" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="J171" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K171" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="L171" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="M171" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="N171" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="O171" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="P171" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q171" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="R171" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="S171" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19">
+      <c r="B172" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C172" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D172" s="16"/>
+      <c r="E172" s="45">
+        <v>0.01</v>
+      </c>
+      <c r="F172" s="45">
+        <v>0.02</v>
+      </c>
+      <c r="G172" s="45">
+        <v>0.02</v>
+      </c>
+      <c r="H172" s="45">
+        <v>0.04</v>
+      </c>
+      <c r="I172" s="45">
+        <v>0.04</v>
+      </c>
+      <c r="J172" s="45">
+        <v>0.03</v>
+      </c>
+      <c r="K172" s="45">
+        <v>0.05</v>
+      </c>
+      <c r="L172" s="45">
+        <v>0.05</v>
+      </c>
+      <c r="M172" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="N172" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="O172" s="45">
+        <v>0.05</v>
+      </c>
+      <c r="P172" s="45">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q172" s="45">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R172" s="45">
+        <v>0.15</v>
+      </c>
+      <c r="S172" s="45">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19">
+      <c r="B173" s="28"/>
+      <c r="C173" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D173" s="16"/>
+      <c r="E173" s="30"/>
+      <c r="F173" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G173" s="30"/>
+      <c r="H173" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I173" s="30"/>
+      <c r="J173" s="30"/>
+      <c r="K173" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="L173" s="30"/>
+      <c r="M173" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="N173" s="30"/>
+      <c r="O173" s="30"/>
+      <c r="P173" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q173" s="30"/>
+      <c r="R173" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="S173" s="30"/>
+    </row>
+    <row r="174" spans="1:19">
+      <c r="B174" s="28"/>
+      <c r="C174" s="15"/>
+      <c r="D174" s="16"/>
+      <c r="E174" s="30"/>
+      <c r="F174" s="30"/>
+      <c r="G174" s="30"/>
+      <c r="H174" s="30"/>
+      <c r="I174" s="30"/>
+      <c r="J174" s="30"/>
+      <c r="K174" s="30"/>
+      <c r="L174" s="30"/>
+      <c r="M174" s="30"/>
+      <c r="N174" s="30"/>
+      <c r="O174" s="30"/>
+      <c r="P174" s="30"/>
+      <c r="Q174" s="30"/>
+      <c r="R174" s="30"/>
+      <c r="S174" s="30"/>
+    </row>
+    <row r="175" spans="1:19">
+      <c r="B175" s="27"/>
+      <c r="C175" s="15"/>
+      <c r="D175" s="16"/>
+      <c r="E175" s="30"/>
+      <c r="F175" s="30"/>
+      <c r="G175" s="30"/>
+      <c r="H175" s="30"/>
+      <c r="I175" s="30"/>
+      <c r="J175" s="30"/>
+      <c r="K175" s="30"/>
+      <c r="L175" s="30"/>
+      <c r="M175" s="30"/>
+      <c r="N175" s="30"/>
+      <c r="O175" s="30"/>
+      <c r="P175" s="30"/>
+      <c r="Q175" s="30"/>
+      <c r="R175" s="30"/>
+      <c r="S175" s="30"/>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177">
+        <v>2.7</v>
+      </c>
+      <c r="B177" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="B178" s="17"/>
+      <c r="C178" s="18"/>
+      <c r="D178" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E178" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F178" s="20"/>
+      <c r="G178" s="20"/>
+      <c r="H178" s="20"/>
+      <c r="I178" s="20"/>
+      <c r="J178" s="21"/>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="B179" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C179" s="23"/>
+      <c r="D179" s="24"/>
+      <c r="E179" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F179" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G179" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H179" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I179" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="J179" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="B180" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C180" s="24"/>
+      <c r="D180" s="23"/>
+      <c r="E180" s="27"/>
+      <c r="F180" s="27"/>
+      <c r="G180" s="27"/>
+      <c r="H180" s="27"/>
+      <c r="I180" s="27"/>
+      <c r="J180" s="27"/>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="B181" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C181" s="15"/>
+      <c r="D181" s="16"/>
+      <c r="E181" s="30"/>
+      <c r="F181" s="30"/>
+      <c r="G181" s="30"/>
+      <c r="H181" s="30"/>
+      <c r="I181" s="30"/>
+      <c r="J181" s="30"/>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="B182" s="28"/>
+      <c r="C182" s="15"/>
+      <c r="D182" s="16"/>
+      <c r="E182" s="30"/>
+      <c r="F182" s="30"/>
+      <c r="G182" s="30"/>
+      <c r="H182" s="30"/>
+      <c r="I182" s="30"/>
+      <c r="J182" s="30"/>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="B183" s="27"/>
+      <c r="C183" s="15"/>
+      <c r="D183" s="16"/>
+      <c r="E183" s="30"/>
+      <c r="F183" s="30"/>
+      <c r="G183" s="30"/>
+      <c r="H183" s="30"/>
+      <c r="I183" s="30"/>
+      <c r="J183" s="30"/>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="B184" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C184" s="15"/>
+      <c r="D184" s="16"/>
+      <c r="E184" s="30"/>
+      <c r="F184" s="30"/>
+      <c r="G184" s="30"/>
+      <c r="H184" s="30"/>
+      <c r="I184" s="30"/>
+      <c r="J184" s="30"/>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="B185" s="28"/>
+      <c r="C185" s="15"/>
+      <c r="D185" s="16"/>
+      <c r="E185" s="30"/>
+      <c r="F185" s="30"/>
+      <c r="G185" s="30"/>
+      <c r="H185" s="30"/>
+      <c r="I185" s="30"/>
+      <c r="J185" s="30"/>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="B186" s="28"/>
+      <c r="C186" s="15"/>
+      <c r="D186" s="16"/>
+      <c r="E186" s="30"/>
+      <c r="F186" s="30"/>
+      <c r="G186" s="30"/>
+      <c r="H186" s="30"/>
+      <c r="I186" s="30"/>
+      <c r="J186" s="30"/>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="B187" s="27"/>
+      <c r="C187" s="15"/>
+      <c r="D187" s="16"/>
+      <c r="E187" s="30"/>
+      <c r="F187" s="30"/>
+      <c r="G187" s="30"/>
+      <c r="H187" s="30"/>
+      <c r="I187" s="30"/>
+      <c r="J187" s="30"/>
+    </row>
+    <row r="204" spans="2:10">
+      <c r="B204" s="17"/>
+      <c r="C204" s="18"/>
+      <c r="D204" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E204" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F204" s="20"/>
+      <c r="G204" s="20"/>
+      <c r="H204" s="20"/>
+      <c r="I204" s="20"/>
+      <c r="J204" s="21"/>
+    </row>
+    <row r="205" spans="2:10">
+      <c r="B205" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C205" s="23"/>
+      <c r="D205" s="24"/>
+      <c r="E205" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F205" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G205" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H205" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I205" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="J205" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="206" spans="2:10">
+      <c r="B206" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C206" s="24"/>
+      <c r="D206" s="23"/>
+      <c r="E206" s="27"/>
+      <c r="F206" s="27"/>
+      <c r="G206" s="27"/>
+      <c r="H206" s="27"/>
+      <c r="I206" s="27"/>
+      <c r="J206" s="27"/>
+    </row>
+    <row r="207" spans="2:10">
+      <c r="B207" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C207" s="15"/>
+      <c r="D207" s="16"/>
+      <c r="E207" s="30"/>
+      <c r="F207" s="30"/>
+      <c r="G207" s="30"/>
+      <c r="H207" s="30"/>
+      <c r="I207" s="30"/>
+      <c r="J207" s="30"/>
+    </row>
+    <row r="208" spans="2:10">
+      <c r="B208" s="28"/>
+      <c r="C208" s="15"/>
+      <c r="D208" s="16"/>
+      <c r="E208" s="30"/>
+      <c r="F208" s="30"/>
+      <c r="G208" s="30"/>
+      <c r="H208" s="30"/>
+      <c r="I208" s="30"/>
+      <c r="J208" s="30"/>
+    </row>
+    <row r="209" spans="2:10">
+      <c r="B209" s="27"/>
+      <c r="C209" s="15"/>
+      <c r="D209" s="16"/>
+      <c r="E209" s="30"/>
+      <c r="F209" s="30"/>
+      <c r="G209" s="30"/>
+      <c r="H209" s="30"/>
+      <c r="I209" s="30"/>
+      <c r="J209" s="30"/>
+    </row>
+    <row r="210" spans="2:10">
+      <c r="B210" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C210" s="15"/>
+      <c r="D210" s="16"/>
+      <c r="E210" s="30"/>
+      <c r="F210" s="30"/>
+      <c r="G210" s="30"/>
+      <c r="H210" s="30"/>
+      <c r="I210" s="30"/>
+      <c r="J210" s="30"/>
+    </row>
+    <row r="211" spans="2:10">
+      <c r="B211" s="28"/>
+      <c r="C211" s="15"/>
+      <c r="D211" s="16"/>
+      <c r="E211" s="30"/>
+      <c r="F211" s="30"/>
+      <c r="G211" s="30"/>
+      <c r="H211" s="30"/>
+      <c r="I211" s="30"/>
+      <c r="J211" s="30"/>
+    </row>
+    <row r="212" spans="2:10">
+      <c r="B212" s="28"/>
+      <c r="C212" s="15"/>
+      <c r="D212" s="16"/>
+      <c r="E212" s="30"/>
+      <c r="F212" s="30"/>
+      <c r="G212" s="30"/>
+      <c r="H212" s="30"/>
+      <c r="I212" s="30"/>
+      <c r="J212" s="30"/>
+    </row>
+    <row r="213" spans="2:10">
+      <c r="B213" s="27"/>
+      <c r="C213" s="15"/>
+      <c r="D213" s="16"/>
+      <c r="E213" s="30"/>
+      <c r="F213" s="30"/>
+      <c r="G213" s="30"/>
+      <c r="H213" s="30"/>
+      <c r="I213" s="30"/>
+      <c r="J213" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
